--- a/inst/doc/xlsx/LOBSTAHS_rt.windows.xlsx
+++ b/inst/doc/xlsx/LOBSTAHS_rt.windows.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrcollins/Code/LOBSTAHS/inst/doc/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\R\LOBSTAHS-DEV\inst\doc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="460" windowWidth="21580" windowHeight="16240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LOBSTAHS_rt.windows" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
   <si>
     <t>rt_win_max</t>
   </si>
@@ -328,12 +328,81 @@
   </si>
   <si>
     <t>Latest version of LOBSTAHS available at https://github.com/vanmooylipidomics/LOBSTAHS</t>
+  </si>
+  <si>
+    <t>Added PDMS</t>
+  </si>
+  <si>
+    <t>PDMS6</t>
+  </si>
+  <si>
+    <t>PDMS7</t>
+  </si>
+  <si>
+    <t>PDMS8</t>
+  </si>
+  <si>
+    <t>PDMS9</t>
+  </si>
+  <si>
+    <t>PDMS10</t>
+  </si>
+  <si>
+    <t>PDMS11</t>
+  </si>
+  <si>
+    <t>PDMS12</t>
+  </si>
+  <si>
+    <t>PDMS13</t>
+  </si>
+  <si>
+    <t>PDMS14</t>
+  </si>
+  <si>
+    <t>PDMS15</t>
+  </si>
+  <si>
+    <t>PDMS16</t>
+  </si>
+  <si>
+    <t>PDMS17</t>
+  </si>
+  <si>
+    <t>PDMS18</t>
+  </si>
+  <si>
+    <t>PDMS19</t>
+  </si>
+  <si>
+    <t>PDMS20</t>
+  </si>
+  <si>
+    <t>PDMS21</t>
+  </si>
+  <si>
+    <t>PDMS22</t>
+  </si>
+  <si>
+    <t>PDMS23</t>
+  </si>
+  <si>
+    <t>PDMS24</t>
+  </si>
+  <si>
+    <t>PDMS25</t>
+  </si>
+  <si>
+    <t>PDMS26</t>
+  </si>
+  <si>
+    <t>PDMS27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -396,7 +465,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -420,6 +489,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -431,6 +503,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -758,18 +833,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -780,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -791,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -802,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
@@ -813,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -821,12 +896,12 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -837,7 +912,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -848,7 +923,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -859,7 +934,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -870,7 +945,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
@@ -881,7 +956,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -889,7 +964,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -897,7 +972,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
@@ -905,12 +980,12 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
@@ -918,7 +993,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>33</v>
       </c>
@@ -929,7 +1004,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
@@ -937,7 +1012,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -945,12 +1020,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
@@ -958,7 +1033,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>38</v>
       </c>
@@ -966,7 +1041,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
@@ -974,7 +1049,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
@@ -982,12 +1057,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>42</v>
       </c>
@@ -995,7 +1070,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>43</v>
       </c>
@@ -1003,7 +1078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>44</v>
       </c>
@@ -1011,7 +1086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>45</v>
       </c>
@@ -1019,7 +1094,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1105,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1041,7 +1116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>56</v>
       </c>
@@ -1052,7 +1127,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
@@ -1063,7 +1138,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>80</v>
       </c>
@@ -1074,7 +1149,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>58</v>
       </c>
@@ -1085,7 +1160,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>59</v>
       </c>
@@ -1096,7 +1171,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1107,7 +1182,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1118,7 +1193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -1129,7 +1204,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -1140,7 +1215,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -1151,7 +1226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1162,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1173,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -1184,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -1195,7 +1270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -1206,7 +1281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -1217,7 +1292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>87</v>
       </c>
@@ -1228,7 +1303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>88</v>
       </c>
@@ -1239,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -1250,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -1261,7 +1336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -1272,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -1283,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -1294,7 +1369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -1305,7 +1380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -1316,7 +1391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -1327,7 +1402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -1338,7 +1413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -1349,7 +1424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -1360,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -1371,7 +1446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -1382,7 +1457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -1393,7 +1468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -1404,7 +1479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -1415,7 +1490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -1426,7 +1501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -1437,7 +1512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -1448,7 +1523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -1459,7 +1534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -1470,7 +1545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>95</v>
       </c>
@@ -1481,7 +1556,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -1490,6 +1565,248 @@
       </c>
       <c r="C72">
         <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82">
+        <v>30</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84">
+        <v>30</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87">
+        <v>30</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88">
+        <v>30</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93">
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1499,111 +1816,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="88.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -1614,7 +1931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>42151</v>
       </c>
@@ -1625,7 +1942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>42178</v>
       </c>
@@ -1636,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>42283</v>
       </c>
@@ -1647,7 +1964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>42347</v>
       </c>
@@ -1658,7 +1975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>42683</v>
       </c>
@@ -1669,7 +1986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>42709</v>
       </c>
@@ -1680,7 +1997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>42719</v>
       </c>
@@ -1691,7 +2008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>42758</v>
       </c>
@@ -1702,7 +2019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>42758</v>
       </c>
@@ -1713,7 +2030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>42769</v>
       </c>
@@ -1722,6 +2039,17 @@
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>42779</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
